--- a/docs/STAFF-DATA/015.xlsx
+++ b/docs/STAFF-DATA/015.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Velammal-Engineering-College-Backend\docs\STAFF-DATA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0553FE9-2789-42D3-9455-D3D6186E7F36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="23260" windowHeight="12460"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="70">
   <si>
     <t>Name</t>
   </si>
@@ -218,12 +217,24 @@
   </si>
   <si>
     <t xml:space="preserve">https://www.scopus.com/authid/detail.uri?authorId=57710931100 </t>
+  </si>
+  <si>
+    <t>VEC-015-03-193</t>
+  </si>
+  <si>
+    <t>VEC-015-04-192</t>
+  </si>
+  <si>
+    <t>VEC-015-04-201</t>
+  </si>
+  <si>
+    <t>VEC-015-04-200</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -290,7 +301,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -308,6 +319,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -610,29 +622,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.33203125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="21.6640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="40.88671875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="30.6640625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="42.77734375" style="4" customWidth="1"/>
-    <col min="6" max="6" width="36.88671875" style="4" customWidth="1"/>
-    <col min="7" max="7" width="20.44140625" style="4" customWidth="1"/>
-    <col min="8" max="8" width="21.109375" style="4" customWidth="1"/>
-    <col min="9" max="9" width="24.109375" style="4" customWidth="1"/>
-    <col min="10" max="10" width="28.33203125" style="4" customWidth="1"/>
-    <col min="11" max="16384" width="8.88671875" style="4"/>
+    <col min="1" max="1" width="16.36328125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="21.6328125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="40.90625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="30.6328125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="42.81640625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="36.90625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="20.453125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="21.08984375" style="4" customWidth="1"/>
+    <col min="9" max="9" width="24.08984375" style="4" customWidth="1"/>
+    <col min="10" max="10" width="28.36328125" style="4" customWidth="1"/>
+    <col min="11" max="16384" width="8.90625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -664,7 +676,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>20</v>
       </c>
@@ -693,7 +705,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>28</v>
       </c>
@@ -709,8 +721,11 @@
       <c r="I3" s="5" t="s">
         <v>31</v>
       </c>
+      <c r="J3" s="4" t="s">
+        <v>66</v>
+      </c>
     </row>
-    <row r="4" spans="1:10" ht="18" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" ht="18" x14ac:dyDescent="0.4">
       <c r="A4" s="4" t="s">
         <v>32</v>
       </c>
@@ -728,7 +743,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="18" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" ht="18" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
         <v>35</v>
       </c>
@@ -747,8 +762,11 @@
       <c r="I5" s="1" t="s">
         <v>37</v>
       </c>
+      <c r="J5" s="9" t="s">
+        <v>67</v>
+      </c>
     </row>
-    <row r="6" spans="1:10" ht="18" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" ht="18" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
         <v>40</v>
       </c>
@@ -777,7 +795,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="18" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" ht="18" x14ac:dyDescent="0.4">
       <c r="A7" s="3" t="s">
         <v>47</v>
       </c>
@@ -802,8 +820,11 @@
       <c r="I7" s="1" t="s">
         <v>48</v>
       </c>
+      <c r="J7" s="4" t="s">
+        <v>68</v>
+      </c>
     </row>
-    <row r="8" spans="1:10" ht="18" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" ht="18" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
         <v>53</v>
       </c>
@@ -832,7 +853,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="18" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" ht="18" x14ac:dyDescent="0.4">
       <c r="A9" s="3" t="s">
         <v>59</v>
       </c>
@@ -848,8 +869,11 @@
       <c r="I9" s="1" t="s">
         <v>60</v>
       </c>
+      <c r="J9" s="4" t="s">
+        <v>69</v>
+      </c>
     </row>
-    <row r="10" spans="1:10" ht="18" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" ht="18" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="s">
         <v>16</v>
       </c>
@@ -877,38 +901,38 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{CC53759F-869B-4239-854F-C6FF06F0CBCC}"/>
-    <hyperlink ref="E2" r:id="rId2" xr:uid="{10ECC9D3-1001-4F3A-B879-FE710131698E}"/>
-    <hyperlink ref="F2" r:id="rId3" xr:uid="{CC68733C-7CD3-4AA1-A8A0-4D24ADBC6FDF}"/>
-    <hyperlink ref="H2" r:id="rId4" display="https://www.scopus.com/authid/detail.uri?authorId=6508212683" xr:uid="{743BDAF1-D23D-45F3-8251-382BC60AC3E9}"/>
-    <hyperlink ref="I2" r:id="rId5" display="https://www.linkedin.com/in/shahil-kirupavathy-0632b416/" xr:uid="{A062DDD7-2482-4727-A086-384AE925ABF5}"/>
-    <hyperlink ref="D3" r:id="rId6" display="https://scholar.google.com/citations?hl=en&amp;user=mmRjxoIAAAAJ" xr:uid="{80DA55B5-8E90-4B29-BF45-CA392F52EA0A}"/>
-    <hyperlink ref="I3" r:id="rId7" display="https://www.linkedin.com/in/dr-v-ramesh-kumar-vaduganathan-383a3522" xr:uid="{836A47F4-99E2-444A-9796-EA07BCEE683E}"/>
-    <hyperlink ref="I4" r:id="rId8" display="https://www.linkedin.com/in/hamsavalli-g-322069204/" xr:uid="{6FED7E90-83F0-4001-A9C3-63387DAF0D91}"/>
-    <hyperlink ref="I5" r:id="rId9" display="https://www.linkedin.com/in/moses-isaiah-47b68332a/" xr:uid="{DF0F7B17-625E-4839-8202-A5D2B0FE3B19}"/>
-    <hyperlink ref="D5" r:id="rId10" display="https://scholar.google.com/citations?hl=en&amp;authuser=2&amp;user=S-bt3OoAAAAJ" xr:uid="{2ABCEE7D-CF33-4F04-A932-E66DC593FF42}"/>
-    <hyperlink ref="E5" r:id="rId11" display="https://www.researchgate.net/profile/Moses-V-G-Isaiah?ev=hdr_xprf" xr:uid="{60A84C07-E485-4AC3-8D6E-6A2987B10566}"/>
-    <hyperlink ref="I6" r:id="rId12" display="https://in.linkedin.com/in/revathy-t-a-726bb5175" xr:uid="{6F24B980-958E-4A28-93ED-B94EF736650A}"/>
-    <hyperlink ref="D6" r:id="rId13" display="https://scholar.google.co.in/citations?user=0ZaDW38AAAAJ&amp;hl=en" xr:uid="{F9B87A76-458F-4057-A5ED-770AE1FF3AE7}"/>
-    <hyperlink ref="E6" r:id="rId14" display="https://www.researchgate.net/profile/Revathy-T-A" xr:uid="{37A694E4-962C-4172-BD60-431DE976BDE7}"/>
-    <hyperlink ref="F6" r:id="rId15" display="https://orcid.org/0009-0009-3888-9451" xr:uid="{DEAF644B-5162-478E-92B8-43E9569212CE}"/>
-    <hyperlink ref="H6" r:id="rId16" display="https://www.scopus.com/authid/detail.uri?authorId=55816833000" xr:uid="{C7A91C46-6CAC-427D-96FC-4862912C7A3C}"/>
-    <hyperlink ref="I7" r:id="rId17" display="https://www.linkedin.com/in/dr-arumugam-j-8912a7101/" xr:uid="{3031DF71-83BD-474B-B4E2-837ACEA09781}"/>
-    <hyperlink ref="D7" r:id="rId18" display="https://scholar.google.com/citations?user=LhooRSoAAAAJ&amp;hl=en" xr:uid="{E42FD3BF-E68A-40C2-A5AB-7D5276B2838B}"/>
-    <hyperlink ref="E7" r:id="rId19" display="https://www.researchgate.net/profile/Arumugam_Jayachandhiran" xr:uid="{2EE5E4D2-0D4B-40A3-B161-0907C059FCC5}"/>
-    <hyperlink ref="F7" r:id="rId20" display="https://orcid.org/0000-0002-3567-4473" xr:uid="{7096E27E-C0D5-4D5F-8F5B-869E30482C6B}"/>
-    <hyperlink ref="H7" r:id="rId21" display="https://www.scopus.com/authid/detail.uri?authorId=57189235655" xr:uid="{2F451D9D-F0E0-45C4-952D-E7A480639D6F}"/>
-    <hyperlink ref="I8" r:id="rId22" display="https://www.linkedin.com/in/jai-chandiran-4124b161/" xr:uid="{0C2E19E2-4D49-48F2-9C31-95872D0DD883}"/>
-    <hyperlink ref="D8" r:id="rId23" xr:uid="{086FC884-E9CA-48A0-A99C-A86D891F475E}"/>
-    <hyperlink ref="E8" r:id="rId24" xr:uid="{23CE6840-83BC-47C7-AD3E-62497B0ACC19}"/>
-    <hyperlink ref="F8" r:id="rId25" display="https://orcid.org/0000-0003-3059-9520" xr:uid="{FFB19D37-51BF-4C26-A29E-D2CAA4D89343}"/>
-    <hyperlink ref="H8" r:id="rId26" display="https://www.scopus.com/authid/detail.uri?authorId=57185644700" xr:uid="{CD9093A6-CB48-46C5-9B6C-B3AB99E31EDE}"/>
-    <hyperlink ref="I9" r:id="rId27" display="https://www.linkedin.com/in/anitha-jennifer-abb6299b/" xr:uid="{E04D6A5B-ACFF-48F2-B693-AA6032678A51}"/>
-    <hyperlink ref="D9" r:id="rId28" display="https://scholar.google.co.in/citations?hl=en&amp;user=02j5uIsAAAAJ&amp;scilu=&amp;scisig=AJY4_hMAAAAAZvoqni4DSLTRwPgytCas9jWH5rc&amp;gmla=ALUCkoU0UKJQa-ObNK0tq_7xMeqAP2FMW34ei8LE5qOi6k8QOsggmF87Oqz6y8-QxOkoPieEvKpY1JOW97F-Pdr0i6pWxnoD7P25PEc&amp;sciund=9598116635219421236" xr:uid="{F9BDB80D-738C-4093-A902-DAF0FC6257C3}"/>
-    <hyperlink ref="I10" r:id="rId29" display="https://www.linkedin.com/in/sivatharani-boomiraja-54401b28b" xr:uid="{6A82E30D-1515-4C2E-9328-DCCA48BFCD50}"/>
-    <hyperlink ref="D10" r:id="rId30" display="https://scholar.google.com/citations?hl=en&amp;user=oew0jxQAAAAJ" xr:uid="{E33D348B-9A9D-4DBE-BBC8-446B47AA9A98}"/>
-    <hyperlink ref="F10" r:id="rId31" display="https://orcid.org/0000-0003-3741-6678" xr:uid="{977A2398-2427-40B1-BF03-C758369F300C}"/>
-    <hyperlink ref="H10" r:id="rId32" display="https://www.scopus.com/authid/detail.uri?authorId=57710931100" xr:uid="{439AD99C-250A-493B-B135-2837A3D874B4}"/>
+    <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="E2" r:id="rId2"/>
+    <hyperlink ref="F2" r:id="rId3"/>
+    <hyperlink ref="H2" r:id="rId4" display="https://www.scopus.com/authid/detail.uri?authorId=6508212683"/>
+    <hyperlink ref="I2" r:id="rId5" display="https://www.linkedin.com/in/shahil-kirupavathy-0632b416/"/>
+    <hyperlink ref="D3" r:id="rId6" display="https://scholar.google.com/citations?hl=en&amp;user=mmRjxoIAAAAJ"/>
+    <hyperlink ref="I3" r:id="rId7" display="https://www.linkedin.com/in/dr-v-ramesh-kumar-vaduganathan-383a3522"/>
+    <hyperlink ref="I4" r:id="rId8" display="https://www.linkedin.com/in/hamsavalli-g-322069204/"/>
+    <hyperlink ref="I5" r:id="rId9" display="https://www.linkedin.com/in/moses-isaiah-47b68332a/"/>
+    <hyperlink ref="D5" r:id="rId10" display="https://scholar.google.com/citations?hl=en&amp;authuser=2&amp;user=S-bt3OoAAAAJ"/>
+    <hyperlink ref="E5" r:id="rId11" display="https://www.researchgate.net/profile/Moses-V-G-Isaiah?ev=hdr_xprf"/>
+    <hyperlink ref="I6" r:id="rId12" display="https://in.linkedin.com/in/revathy-t-a-726bb5175"/>
+    <hyperlink ref="D6" r:id="rId13" display="https://scholar.google.co.in/citations?user=0ZaDW38AAAAJ&amp;hl=en"/>
+    <hyperlink ref="E6" r:id="rId14" display="https://www.researchgate.net/profile/Revathy-T-A"/>
+    <hyperlink ref="F6" r:id="rId15" display="https://orcid.org/0009-0009-3888-9451"/>
+    <hyperlink ref="H6" r:id="rId16" display="https://www.scopus.com/authid/detail.uri?authorId=55816833000"/>
+    <hyperlink ref="I7" r:id="rId17" display="https://www.linkedin.com/in/dr-arumugam-j-8912a7101/"/>
+    <hyperlink ref="D7" r:id="rId18" display="https://scholar.google.com/citations?user=LhooRSoAAAAJ&amp;hl=en"/>
+    <hyperlink ref="E7" r:id="rId19" display="https://www.researchgate.net/profile/Arumugam_Jayachandhiran"/>
+    <hyperlink ref="F7" r:id="rId20" display="https://orcid.org/0000-0002-3567-4473"/>
+    <hyperlink ref="H7" r:id="rId21" display="https://www.scopus.com/authid/detail.uri?authorId=57189235655"/>
+    <hyperlink ref="I8" r:id="rId22" display="https://www.linkedin.com/in/jai-chandiran-4124b161/"/>
+    <hyperlink ref="D8" r:id="rId23"/>
+    <hyperlink ref="E8" r:id="rId24"/>
+    <hyperlink ref="F8" r:id="rId25" display="https://orcid.org/0000-0003-3059-9520"/>
+    <hyperlink ref="H8" r:id="rId26" display="https://www.scopus.com/authid/detail.uri?authorId=57185644700"/>
+    <hyperlink ref="I9" r:id="rId27" display="https://www.linkedin.com/in/anitha-jennifer-abb6299b/"/>
+    <hyperlink ref="D9" r:id="rId28" display="https://scholar.google.co.in/citations?hl=en&amp;user=02j5uIsAAAAJ&amp;scilu=&amp;scisig=AJY4_hMAAAAAZvoqni4DSLTRwPgytCas9jWH5rc&amp;gmla=ALUCkoU0UKJQa-ObNK0tq_7xMeqAP2FMW34ei8LE5qOi6k8QOsggmF87Oqz6y8-QxOkoPieEvKpY1JOW97F-Pdr0i6pWxnoD7P25PEc&amp;sciund=9598116635219421236"/>
+    <hyperlink ref="I10" r:id="rId29" display="https://www.linkedin.com/in/sivatharani-boomiraja-54401b28b"/>
+    <hyperlink ref="D10" r:id="rId30" display="https://scholar.google.com/citations?hl=en&amp;user=oew0jxQAAAAJ"/>
+    <hyperlink ref="F10" r:id="rId31" display="https://orcid.org/0000-0003-3741-6678"/>
+    <hyperlink ref="H10" r:id="rId32" display="https://www.scopus.com/authid/detail.uri?authorId=57710931100"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/docs/STAFF-DATA/015.xlsx
+++ b/docs/STAFF-DATA/015.xlsx
@@ -46,7 +46,9 @@
     <t>unique_id</t>
   </si>
   <si>
-    <t>Dr. S. Shahil Kirupavathy</t>
+    <t xml:space="preserve">Dr. SHAHIL KIRUPAVATHY S
+SHAHIL KIRUPAVATHY.S
+</t>
   </si>
   <si>
     <t>Professor &amp; head</t>
@@ -73,7 +75,8 @@
     <t>VEC-015-01-191</t>
   </si>
   <si>
-    <t xml:space="preserve">Dr. V. Ramesh Kumar </t>
+    <t xml:space="preserve">Dr. RAMESH KUMAR V
+</t>
   </si>
   <si>
     <t>Associate Professor</t>
@@ -91,7 +94,8 @@
     <t>VEC-015-03-193</t>
   </si>
   <si>
-    <t xml:space="preserve">Mrs. G. Hamsavalli </t>
+    <t xml:space="preserve">Mrs. HAMSAVALLI G
+</t>
   </si>
   <si>
     <t>Assistant Professor - II</t>
@@ -106,7 +110,7 @@
     <t>VEC-015-04-091</t>
   </si>
   <si>
-    <t xml:space="preserve">Mr. Moses V.G. Isaiah </t>
+    <t>Mr. MOSES V.G. ISAIAH</t>
   </si>
   <si>
     <t xml:space="preserve">Assistant Professor </t>
@@ -127,7 +131,7 @@
     <t>VEC-015-04-192</t>
   </si>
   <si>
-    <t xml:space="preserve"> Dr. T. A. Revathy</t>
+    <t>Dr. REVATHY T A</t>
   </si>
   <si>
     <t>/static/images/profile_photos/015/VEC-015-04-527.webp</t>
@@ -154,7 +158,8 @@
     <t>VEC-015-04-527</t>
   </si>
   <si>
-    <t>Dr. J. Arumugam</t>
+    <t xml:space="preserve">Dr. ARUMUGAM J
+</t>
   </si>
   <si>
     <t>Assistant Professor</t>
@@ -181,7 +186,7 @@
     <t>VEC-015-04-201</t>
   </si>
   <si>
-    <t>Dr. M. Jayachandiran</t>
+    <t>Dr. JAYACHANDIRAN M</t>
   </si>
   <si>
     <t>/static/images/profile_photos/015/VEC-015-04-049.webp</t>
@@ -205,7 +210,8 @@
     <t>VEC-015-04-049</t>
   </si>
   <si>
-    <t>Mrs. D. Anitha Jennifer</t>
+    <t xml:space="preserve">Mrs. ANITHA JENNIFER D
+</t>
   </si>
   <si>
     <t>/static/images/profile_photos/015/VEC-015-04-200.webp</t>
@@ -220,7 +226,8 @@
     <t>VEC-015-04-200</t>
   </si>
   <si>
-    <t>Dr. B. Sivatharani</t>
+    <t xml:space="preserve">Dr. SIVATHARANI B
+</t>
   </si>
   <si>
     <t>/static/images/profile_photos/015/VEC-015-04-078.webp</t>
@@ -246,7 +253,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -258,6 +265,12 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -328,19 +341,19 @@
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -657,9 +670,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="7" width="16.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="7" width="21.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="8" width="57.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="7" width="29.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="7" width="29.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="8" width="51.005" customWidth="1" bestFit="1"/>
     <col min="4" max="4" style="7" width="0.7192857142857143" customWidth="1" bestFit="1"/>
     <col min="5" max="5" style="8" width="2.005" customWidth="1" bestFit="1"/>
     <col min="6" max="6" style="7" width="1.719285714285714" customWidth="1" bestFit="1"/>
@@ -669,7 +682,7 @@
     <col min="10" max="10" style="8" width="28.433571428571426" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>

--- a/docs/STAFF-DATA/015.xlsx
+++ b/docs/STAFF-DATA/015.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\Velammal-Engineering-College-Backend\docs\STAFF-DATA\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9780"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="74">
   <si>
     <t>Name</t>
   </si>
@@ -44,11 +49,6 @@
   </si>
   <si>
     <t>unique_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dr. SHAHIL KIRUPAVATHY S
-SHAHIL KIRUPAVATHY.S
-</t>
   </si>
   <si>
     <t>Professor &amp; head</t>
@@ -98,9 +98,6 @@
 </t>
   </si>
   <si>
-    <t>Assistant Professor - II</t>
-  </si>
-  <si>
     <t>/static/images/profile_photos/015/VEC-015-04-091.webp</t>
   </si>
   <si>
@@ -108,9 +105,6 @@
   </si>
   <si>
     <t>VEC-015-04-091</t>
-  </si>
-  <si>
-    <t>Mr. MOSES V.G. ISAIAH</t>
   </si>
   <si>
     <t xml:space="preserve">Assistant Professor </t>
@@ -246,13 +240,19 @@
   </si>
   <si>
     <t>VEC-015-04-078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dr. SHAHIL KIRUPAVATHY S
+</t>
+  </si>
+  <si>
+    <t>Mr. MOSES ISAIAH V G</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -336,41 +336,43 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+  <cellXfs count="10">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -381,10 +383,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -422,71 +424,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -514,7 +516,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -537,11 +539,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -550,13 +552,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -566,7 +568,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -575,7 +577,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -584,7 +586,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -592,10 +594,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -666,23 +668,25 @@
   </sheetPr>
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" style="7" width="29.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="7" width="29.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="8" width="51.005" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="7" width="0.7192857142857143" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="8" width="2.005" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="7" width="1.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="8" width="1.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="7" width="3.5764285714285715" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="7" width="5.005" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="8" width="28.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="40.109375" style="7" customWidth="1"/>
+    <col min="2" max="2" width="29.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="51" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="0.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="2" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="1.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="1.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.44140625" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
+    <row r="1" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -714,69 +718,69 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:10" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>14</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>15</v>
       </c>
       <c r="G2" s="3"/>
       <c r="H2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="J2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="3" t="s">
+    </row>
+    <row r="3" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
-      <c r="A3" s="2" t="s">
+      <c r="B3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="C3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>22</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="2"/>
       <c r="G3" s="3"/>
       <c r="H3" s="2"/>
       <c r="I3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="J3" s="3" t="s">
+    </row>
+    <row r="4" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="21.75">
-      <c r="A4" s="2" t="s">
+      <c r="B4" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>27</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="3"/>
@@ -784,180 +788,180 @@
       <c r="G4" s="3"/>
       <c r="H4" s="2"/>
       <c r="I4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="C5" s="3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="21.75">
-      <c r="A5" s="6" t="s">
+      <c r="D5" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="E5" s="4" t="s">
         <v>31</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>34</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="3"/>
       <c r="H5" s="2"/>
       <c r="I5" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G6" s="3"/>
+      <c r="H6" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="D7" s="4" t="s">
         <v>36</v>
       </c>
+      <c r="E7" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>42</v>
+      </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="21.75">
-      <c r="A6" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="I6" s="4" t="s">
+    <row r="8" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="J6" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="21.75">
-      <c r="A7" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="G7" s="3"/>
-      <c r="H7" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="I7" s="4" t="s">
+      <c r="C8" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="J7" s="3" t="s">
+      <c r="D8" s="4" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="21.75">
-      <c r="A8" s="6" t="s">
+      <c r="E8" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C8" s="3" t="s">
+      <c r="F8" s="4" t="s">
         <v>56</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>59</v>
       </c>
       <c r="G8" s="3"/>
       <c r="H8" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="B9" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="J8" s="3" t="s">
+      <c r="D9" s="4" t="s">
         <v>62</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="21.75">
-      <c r="A9" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>65</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="2"/>
       <c r="G9" s="3"/>
       <c r="H9" s="2"/>
       <c r="I9" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="J9" s="3" t="s">
+      <c r="D10" s="4" t="s">
         <v>67</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="21.75">
-      <c r="A10" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>70</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="4" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/docs/STAFF-DATA/015.xlsx
+++ b/docs/STAFF-DATA/015.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\Velammal-Engineering-College-Backend\docs\STAFF-DATA\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9780"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -51,10 +46,15 @@
     <t>unique_id</t>
   </si>
   <si>
+    <t xml:space="preserve">Dr. SHAHIL KIRUPAVATHY S
+</t>
+  </si>
+  <si>
     <t>Professor &amp; head</t>
   </si>
   <si>
-    <t>/static/images/hods/phy.webp</t>
+    <t xml:space="preserve">/static/images/profile_photos/015/VEC-015-01-191.webp
+</t>
   </si>
   <si>
     <t xml:space="preserve">https://scholar.google.com/citations?user=c0eMtlMAAAAJ&amp;hl=en&amp;oi=ao </t>
@@ -98,6 +98,9 @@
 </t>
   </si>
   <si>
+    <t>Assistant Professor</t>
+  </si>
+  <si>
     <t>/static/images/profile_photos/015/VEC-015-04-091.webp</t>
   </si>
   <si>
@@ -107,6 +110,9 @@
     <t>VEC-015-04-091</t>
   </si>
   <si>
+    <t>Mr. MOSES ISAIAH V G</t>
+  </si>
+  <si>
     <t xml:space="preserve">Assistant Professor </t>
   </si>
   <si>
@@ -123,42 +129,12 @@
   </si>
   <si>
     <t>VEC-015-04-192</t>
-  </si>
-  <si>
-    <t>Dr. REVATHY T A</t>
-  </si>
-  <si>
-    <t>/static/images/profile_photos/015/VEC-015-04-527.webp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://scholar.google.co.in/citations?user=0ZaDW38AAAAJ&amp;hl=en </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.researchgate.net/profile/Revathy-T-A </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://orcid.org/0009-0009-3888-9451 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MEK-9464-2025 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.scopus.com/authid/detail.uri?authorId=55816833000 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://in.linkedin.com/in/revathy-t-a-726bb5175 </t>
-  </si>
-  <si>
-    <t>VEC-015-04-527</t>
   </si>
   <si>
     <t xml:space="preserve">Dr. ARUMUGAM J
 </t>
   </si>
   <si>
-    <t>Assistant Professor</t>
-  </si>
-  <si>
     <t>/static/images/profile_photos/015/VEC-015-04-201.webp</t>
   </si>
   <si>
@@ -178,6 +154,33 @@
   </si>
   <si>
     <t>VEC-015-04-201</t>
+  </si>
+  <si>
+    <t>Dr. REVATHY T A</t>
+  </si>
+  <si>
+    <t>/static/images/profile_photos/015/VEC-015-04-527.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://scholar.google.co.in/citations?user=0ZaDW38AAAAJ&amp;hl=en </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.researchgate.net/profile/Revathy-T-A </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://orcid.org/0009-0009-3888-9451 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEK-9464-2025 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.scopus.com/authid/detail.uri?authorId=55816833000 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://in.linkedin.com/in/revathy-t-a-726bb5175 </t>
+  </si>
+  <si>
+    <t>VEC-015-04-527</t>
   </si>
   <si>
     <t>Dr. JAYACHANDIRAN M</t>
@@ -240,20 +243,14 @@
   </si>
   <si>
     <t>VEC-015-04-078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dr. SHAHIL KIRUPAVATHY S
-</t>
-  </si>
-  <si>
-    <t>Mr. MOSES ISAIAH V G</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -270,18 +267,12 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
       <u/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -336,43 +327,41 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="9">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -383,10 +372,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -424,71 +413,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -516,7 +505,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -539,11 +528,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -552,13 +541,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -568,7 +557,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -577,7 +566,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -586,7 +575,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -594,10 +583,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
+              <a:rot rev="0" lon="0" lat="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -668,25 +657,23 @@
   </sheetPr>
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
-    </sheetView>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40.109375" style="7" customWidth="1"/>
-    <col min="2" max="2" width="29.44140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="51" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="0.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="2" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="1.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="1.6640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="3.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5" style="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.44140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" style="7" width="40.14785714285715" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="7" width="29.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="8" width="51.005" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="7" width="0.7192857142857143" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="8" width="2.005" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="7" width="1.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="8" width="1.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="7" width="3.5764285714285715" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="7" width="5.005" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="8" width="28.433571428571426" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -718,250 +705,250 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="33.75">
+      <c r="A2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="4"/>
+      <c r="H2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+      <c r="A3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="21.75">
+      <c r="A4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="21.75">
+      <c r="A5" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="3"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="21.75">
+      <c r="A6" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G6" s="4"/>
+      <c r="H6" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="21.75">
+      <c r="A7" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="21.75">
+      <c r="A8" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G8" s="4"/>
+      <c r="H8" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="21.75">
+      <c r="A9" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E9" s="4"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="21.75">
+      <c r="A10" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E10" s="4"/>
+      <c r="F10" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G10" s="4"/>
+      <c r="H10" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="I10" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="3"/>
-      <c r="H2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="3"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="6" t="s">
+      <c r="J10" s="4" t="s">
         <v>73</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="G6" s="3"/>
-      <c r="H6" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="G8" s="3"/>
-      <c r="H8" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="G10" s="3"/>
-      <c r="H10" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/docs/STAFF-DATA/015.xlsx
+++ b/docs/STAFF-DATA/015.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28925"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Velammal-Engineering-College-Backend\docs\STAFF-DATA\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B553BBB4-3EAC-4633-BE10-3005736EE074}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="78">
   <si>
     <t>Name</t>
   </si>
@@ -243,13 +249,24 @@
   </si>
   <si>
     <t>VEC-015-04-078</t>
+  </si>
+  <si>
+    <t>RAVI KUMAR C</t>
+  </si>
+  <si>
+    <t>Lab Instructor</t>
+  </si>
+  <si>
+    <t>VEC-015-05-011</t>
+  </si>
+  <si>
+    <t>/static/images/profile_photos/015/VEC-015-05-011.webp</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -327,41 +344,38 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+  <cellXfs count="7">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -372,10 +386,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -413,71 +427,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -505,7 +519,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -528,11 +542,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -541,13 +555,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -557,7 +571,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -566,7 +580,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -575,7 +589,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -583,10 +597,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -651,29 +665,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" style="7" width="40.14785714285715" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="7" width="29.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="8" width="51.005" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="7" width="0.7192857142857143" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="8" width="2.005" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="7" width="1.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="8" width="1.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="7" width="3.5764285714285715" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="7" width="5.005" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="8" width="28.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="40.109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.44140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="51" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="0.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="1.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="1.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3.5546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
+    <row r="1" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,250 +721,252 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="33.75">
+    <row r="2" spans="1:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="4"/>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+    <row r="3" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="4"/>
       <c r="F3" s="3"/>
-      <c r="G3" s="4"/>
       <c r="H3" s="3"/>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="J3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="21.75">
+    <row r="4" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="4"/>
+      <c r="D4" s="4"/>
       <c r="F4" s="3"/>
-      <c r="G4" s="4"/>
       <c r="H4" s="3"/>
-      <c r="I4" s="5" t="s">
+      <c r="I4" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="J4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="21.75">
-      <c r="A5" s="6" t="s">
+    <row r="5" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="4" t="s">
         <v>34</v>
       </c>
       <c r="F5" s="3"/>
-      <c r="G5" s="4"/>
       <c r="H5" s="3"/>
-      <c r="I5" s="5" t="s">
+      <c r="I5" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="J5" s="4" t="s">
+      <c r="J5" t="s">
         <v>36</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="21.75">
-      <c r="A6" s="6" t="s">
+    <row r="6" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="G6" s="4"/>
-      <c r="H6" s="5" t="s">
+      <c r="H6" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="I6" s="5" t="s">
+      <c r="I6" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="J6" s="4" t="s">
+      <c r="J6" t="s">
         <v>44</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="21.75">
-      <c r="A7" s="6" t="s">
+    <row r="7" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" t="s">
         <v>46</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="G7" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="H7" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="I7" s="5" t="s">
+      <c r="I7" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="J7" s="4" t="s">
+      <c r="J7" t="s">
         <v>53</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="21.75">
-      <c r="A8" s="6" t="s">
+    <row r="8" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" t="s">
         <v>55</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="G8" s="4"/>
-      <c r="H8" s="5" t="s">
+      <c r="H8" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="I8" s="5" t="s">
+      <c r="I8" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="J8" s="4" t="s">
+      <c r="J8" t="s">
         <v>61</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="21.75">
-      <c r="A9" s="6" t="s">
+    <row r="9" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" t="s">
         <v>63</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="E9" s="4"/>
       <c r="F9" s="3"/>
-      <c r="G9" s="4"/>
       <c r="H9" s="3"/>
-      <c r="I9" s="5" t="s">
+      <c r="I9" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="J9" s="4" t="s">
+      <c r="J9" t="s">
         <v>66</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="21.75">
-      <c r="A10" s="6" t="s">
+    <row r="10" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" t="s">
         <v>68</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="E10" s="4"/>
-      <c r="F10" s="5" t="s">
+      <c r="F10" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="G10" s="4"/>
-      <c r="H10" s="5" t="s">
+      <c r="H10" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="I10" s="5" t="s">
+      <c r="I10" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="J10" s="4" t="s">
+      <c r="J10" t="s">
         <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C11" t="s">
+        <v>77</v>
+      </c>
+      <c r="J11" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/docs/STAFF-DATA/015.xlsx
+++ b/docs/STAFF-DATA/015.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Velammal-Engineering-College-Backend\docs\STAFF-DATA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Velammal-Engineering-College-Backend\docs\STAFF-DATA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B553BBB4-3EAC-4633-BE10-3005736EE074}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAAA24E6-F7C1-45AF-9D43-F3AF9A2AE377}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -251,9 +251,6 @@
     <t>VEC-015-04-078</t>
   </si>
   <si>
-    <t>RAVI KUMAR C</t>
-  </si>
-  <si>
     <t>Lab Instructor</t>
   </si>
   <si>
@@ -261,6 +258,9 @@
   </si>
   <si>
     <t>/static/images/profile_photos/015/VEC-015-05-011.webp</t>
+  </si>
+  <si>
+    <t>Mr. RAVI KUMAR C</t>
   </si>
 </sst>
 </file>
@@ -672,7 +672,7 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -957,16 +957,16 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="C11" t="s">
+        <v>76</v>
+      </c>
+      <c r="J11" t="s">
         <v>75</v>
-      </c>
-      <c r="C11" t="s">
-        <v>77</v>
-      </c>
-      <c r="J11" t="s">
-        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/docs/STAFF-DATA/015.xlsx
+++ b/docs/STAFF-DATA/015.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Velammal-Engineering-College-Backend\docs\STAFF-DATA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAAA24E6-F7C1-45AF-9D43-F3AF9A2AE377}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1305D992-CC1D-48D1-A120-26737D916440}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="15168" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -267,7 +267,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -300,6 +300,12 @@
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -344,7 +350,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -362,6 +368,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -689,7 +698,7 @@
     <col min="10" max="10" width="28.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -721,7 +730,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
@@ -793,10 +802,10 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="7" t="s">
         <v>31</v>
       </c>
       <c r="C5" t="s">
@@ -818,71 +827,71 @@
       </c>
     </row>
     <row r="6" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="J6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B7" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C7" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D7" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E7" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F7" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="H7" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="I7" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="J6" t="s">
+      <c r="J7" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" t="s">
-        <v>46</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="J7" t="s">
-        <v>53</v>
-      </c>
-    </row>
     <row r="8" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="7" t="s">
         <v>26</v>
       </c>
       <c r="C8" t="s">
@@ -908,10 +917,10 @@
       </c>
     </row>
     <row r="9" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="7" t="s">
         <v>31</v>
       </c>
       <c r="C9" t="s">
@@ -930,10 +939,10 @@
       </c>
     </row>
     <row r="10" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="7" t="s">
         <v>26</v>
       </c>
       <c r="C10" t="s">

--- a/docs/STAFF-DATA/015.xlsx
+++ b/docs/STAFF-DATA/015.xlsx
@@ -5,22 +5,33 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Velammal-Engineering-College-Backend\docs\STAFF-DATA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Velammal-Engineering-College-Backend\docs\STAFF-DATA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1305D992-CC1D-48D1-A120-26737D916440}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96AA9CE4-1A38-44E3-A88E-62CD268D1C27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="15168" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="79">
   <si>
     <t>Name</t>
   </si>
@@ -110,9 +121,6 @@
     <t>/static/images/profile_photos/015/VEC-015-04-091.webp</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.linkedin.com/in/hamsavalli-g-322069204/ </t>
-  </si>
-  <si>
     <t>VEC-015-04-091</t>
   </si>
   <si>
@@ -177,9 +185,6 @@
     <t xml:space="preserve">https://orcid.org/0009-0009-3888-9451 </t>
   </si>
   <si>
-    <t xml:space="preserve">MEK-9464-2025 </t>
-  </si>
-  <si>
     <t xml:space="preserve">https://www.scopus.com/authid/detail.uri?authorId=55816833000 </t>
   </si>
   <si>
@@ -245,9 +250,6 @@
     <t xml:space="preserve">https://www.scopus.com/authid/detail.uri?authorId=57710931100 </t>
   </si>
   <si>
-    <t xml:space="preserve">linkedin.com/in/sivatharani-boomiraja-54401b28b </t>
-  </si>
-  <si>
     <t>VEC-015-04-078</t>
   </si>
   <si>
@@ -261,13 +263,25 @@
   </si>
   <si>
     <t>Mr. RAVI KUMAR C</t>
+  </si>
+  <si>
+    <t>https://orcid.org/0000-0003-4302-6131</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/hamsavalli-g-322069204?utm_source=share&amp;utm_campaign=share_via&amp;utm_content=profile&amp;utm_medium=android_app</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> https://www.webofscience.com/wos/author/record/MEK-9464-2025 </t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/sivatharani-boomiraja-54401b28b/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -306,6 +320,14 @@
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -347,10 +369,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -373,8 +396,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -680,8 +707,8 @@
   </sheetPr>
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -689,12 +716,12 @@
     <col min="1" max="1" width="40.109375" style="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29.44140625" style="6" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="51" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="0.6640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="1.6640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="1.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="21.88671875" customWidth="1"/>
+    <col min="6" max="6" width="28.44140625" style="6" customWidth="1"/>
+    <col min="7" max="7" width="20.33203125" customWidth="1"/>
     <col min="8" max="8" width="3.5546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="31.44140625" style="6" customWidth="1"/>
     <col min="10" max="10" width="28.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -746,7 +773,7 @@
       <c r="E2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="8" t="s">
         <v>15</v>
       </c>
       <c r="H2" s="4" t="s">
@@ -772,7 +799,9 @@
       <c r="D3" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="3"/>
+      <c r="F3" s="8" t="s">
+        <v>75</v>
+      </c>
       <c r="H3" s="3"/>
       <c r="I3" s="4" t="s">
         <v>23</v>
@@ -794,191 +823,197 @@
       <c r="D4" s="4"/>
       <c r="F4" s="3"/>
       <c r="H4" s="3"/>
-      <c r="I4" s="4" t="s">
+      <c r="I4" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="J4" t="s">
         <v>28</v>
-      </c>
-      <c r="J4" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="C5" t="s">
         <v>31</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="E5" s="4" t="s">
         <v>33</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>34</v>
       </c>
       <c r="F5" s="3"/>
       <c r="H5" s="3"/>
       <c r="I5" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J5" t="s">
         <v>35</v>
-      </c>
-      <c r="J5" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" t="s">
         <v>45</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="D6" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="E6" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="F6" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="G6" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="H6" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="I6" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="J6" t="s">
         <v>51</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="J6" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>26</v>
       </c>
       <c r="C7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="E7" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="F7" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="H7" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="I7" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="J7" t="s">
         <v>43</v>
-      </c>
-      <c r="J7" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>26</v>
       </c>
       <c r="C8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="F8" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="H8" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="I8" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="J8" t="s">
         <v>59</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="J8" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>62</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" t="s">
-        <v>63</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>64</v>
       </c>
       <c r="F9" s="3"/>
       <c r="H9" s="3"/>
       <c r="I9" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J9" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>26</v>
       </c>
       <c r="C10" t="s">
+        <v>66</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F10" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="H10" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="I10" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="J10" t="s">
         <v>70</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="J10" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C11" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="J11" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{A5F98899-F30B-4293-B019-034FEA9638D3}"/>
+    <hyperlink ref="F3" r:id="rId2" xr:uid="{BF3A9B70-9AEA-4A70-B029-1A83F75D2D9D}"/>
+    <hyperlink ref="I4" r:id="rId3" xr:uid="{AA2C6452-0B04-4D63-8947-AC1B393FE427}"/>
+    <hyperlink ref="I10" r:id="rId4" xr:uid="{5573DF8A-7AFD-4543-8377-2314489BC0B3}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>